--- a/test_emoji.xlsx
+++ b/test_emoji.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="27240" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="2420" yWindow="7360" windowWidth="27240" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Oiii! :-) Testando emojis &lt;3</t>
   </si>
   <si>
-    <t>mensagem</t>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Mensagem</t>
+  </si>
+  <si>
+    <t>Maria Bot</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Pedro Bot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oiii! :-) Testando mais emojis :-D </t>
   </si>
 </sst>
 </file>
@@ -347,25 +368,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
